--- a/apps/load_data/2015/12/PLMOVMAE.xlsx
+++ b/apps/load_data/2015/12/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2015\HHY1215\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HHY ACTUALIZADOS\2015\HHY1215\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D267D50-652D-495A-8F06-63A018043BEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83D2B58-D1C3-4193-905A-4A0936A88F13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$274</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$267</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10741" uniqueCount="2456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10728" uniqueCount="2455">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6734,9 +6735,6 @@
   </si>
   <si>
     <t>08771747</t>
-  </si>
-  <si>
-    <t>S/N</t>
   </si>
   <si>
     <t>1047     24364     243641054     30000     300001081    296920    2969201082    159880    1598801147     96778     967782001         0     386002006     53300     533002026    206417    2064172086      2500         02180       250         0</t>
@@ -8249,8 +8247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="K276" sqref="K276"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD267" sqref="AC245:AD267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50138,12 +50136,7 @@
       <c r="AA245" s="1">
         <v>0</v>
       </c>
-      <c r="AC245" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD245" s="1" t="s">
-        <v>2237</v>
-      </c>
+      <c r="AC245" s="3"/>
       <c r="AF245" s="1" t="s">
         <v>103</v>
       </c>
@@ -50208,10 +50201,10 @@
         <v>111</v>
       </c>
       <c r="BH245" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="BI245" s="1" t="s">
         <v>2238</v>
-      </c>
-      <c r="BI245" s="1" t="s">
-        <v>2239</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>114</v>
@@ -50220,7 +50213,7 @@
         <v>102</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>118</v>
@@ -50241,13 +50234,13 @@
         <v>98</v>
       </c>
       <c r="CC245" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="CD245" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="CD245" s="1" t="s">
+      <c r="CE245" s="1" t="s">
         <v>2242</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2243</v>
       </c>
     </row>
     <row r="246" spans="1:83" x14ac:dyDescent="0.25">
@@ -50282,13 +50275,13 @@
         <v>93</v>
       </c>
       <c r="K246" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="L246" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="L246" s="1" t="s">
+      <c r="N246" s="1" t="s">
         <v>2245</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>2246</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>97</v>
@@ -50320,12 +50313,7 @@
       <c r="AB246" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="AC246" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD246" s="1" t="s">
-        <v>2237</v>
-      </c>
+      <c r="AC246" s="3"/>
       <c r="AF246" s="1" t="s">
         <v>103</v>
       </c>
@@ -50372,7 +50360,7 @@
         <v>98</v>
       </c>
       <c r="AZ246" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="BB246" s="1">
         <v>12</v>
@@ -50390,10 +50378,10 @@
         <v>111</v>
       </c>
       <c r="BH246" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="BI246" s="1" t="s">
         <v>2248</v>
-      </c>
-      <c r="BI246" s="1" t="s">
-        <v>2249</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>114</v>
@@ -50405,13 +50393,13 @@
         <v>99</v>
       </c>
       <c r="BR246" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="BS246" s="3">
         <v>36949</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>118</v>
@@ -50435,13 +50423,13 @@
         <v>98</v>
       </c>
       <c r="CC246" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="CD246" s="1" t="s">
         <v>1827</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="247" spans="1:83" x14ac:dyDescent="0.25">
@@ -50476,13 +50464,13 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="N247" s="1" t="s">
         <v>2255</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2256</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>97</v>
@@ -50514,12 +50502,7 @@
       <c r="AB247" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="AC247" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD247" s="1" t="s">
-        <v>2237</v>
-      </c>
+      <c r="AC247" s="3"/>
       <c r="AF247" s="1" t="s">
         <v>103</v>
       </c>
@@ -50566,7 +50549,7 @@
         <v>98</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="BB247" s="1">
         <v>12</v>
@@ -50587,10 +50570,10 @@
         <v>111</v>
       </c>
       <c r="BH247" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="BI247" s="1" t="s">
         <v>2258</v>
-      </c>
-      <c r="BI247" s="1" t="s">
-        <v>2259</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>114</v>
@@ -50602,13 +50585,13 @@
         <v>99</v>
       </c>
       <c r="BR247" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="BS247" s="3">
         <v>36825</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>118</v>
@@ -50632,13 +50615,13 @@
         <v>98</v>
       </c>
       <c r="CC247" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="CD247" s="1" t="s">
         <v>2262</v>
       </c>
-      <c r="CD247" s="1" t="s">
+      <c r="CE247" s="1" t="s">
         <v>2263</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>2264</v>
       </c>
     </row>
     <row r="248" spans="1:83" x14ac:dyDescent="0.25">
@@ -50673,13 +50656,13 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2265</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="N248" s="1" t="s">
         <v>2266</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2267</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>97</v>
@@ -50708,12 +50691,7 @@
       <c r="AA248" s="1">
         <v>0</v>
       </c>
-      <c r="AC248" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD248" s="1" t="s">
-        <v>2237</v>
-      </c>
+      <c r="AC248" s="3"/>
       <c r="AF248" s="1" t="s">
         <v>103</v>
       </c>
@@ -50763,7 +50741,7 @@
         <v>98</v>
       </c>
       <c r="AZ248" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="BB248" s="1">
         <v>12</v>
@@ -50781,7 +50759,7 @@
         <v>111</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="BI248" s="1" t="s">
         <v>180</v>
@@ -50793,7 +50771,7 @@
         <v>102</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>118</v>
@@ -50811,13 +50789,13 @@
         <v>98</v>
       </c>
       <c r="CC248" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="CD248" s="1" t="s">
         <v>1148</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="249" spans="1:83" x14ac:dyDescent="0.25">
@@ -50852,13 +50830,13 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2273</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="N249" s="1" t="s">
         <v>2274</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2275</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>97</v>
@@ -50887,12 +50865,7 @@
       <c r="AA249" s="1">
         <v>0</v>
       </c>
-      <c r="AC249" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD249" s="1" t="s">
-        <v>2237</v>
-      </c>
+      <c r="AC249" s="3"/>
       <c r="AF249" s="1" t="s">
         <v>103</v>
       </c>
@@ -50942,7 +50915,7 @@
         <v>98</v>
       </c>
       <c r="AZ249" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="BB249" s="1">
         <v>12</v>
@@ -50960,7 +50933,7 @@
         <v>111</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="BI249" s="1" t="s">
         <v>833</v>
@@ -50972,7 +50945,7 @@
         <v>102</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>118</v>
@@ -50993,10 +50966,10 @@
         <v>671</v>
       </c>
       <c r="CD249" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="CE249" s="1" t="s">
         <v>2279</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>2280</v>
       </c>
     </row>
     <row r="250" spans="1:83" x14ac:dyDescent="0.25">
@@ -51031,13 +51004,13 @@
         <v>93</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="L250" s="1" t="s">
         <v>2281</v>
       </c>
-      <c r="L250" s="1" t="s">
+      <c r="N250" s="1" t="s">
         <v>2282</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>2283</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>97</v>
@@ -51066,12 +51039,7 @@
       <c r="AA250" s="1">
         <v>0</v>
       </c>
-      <c r="AC250" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD250" s="1" t="s">
-        <v>2237</v>
-      </c>
+      <c r="AC250" s="3"/>
       <c r="AF250" s="1" t="s">
         <v>103</v>
       </c>
@@ -51121,7 +51089,7 @@
         <v>98</v>
       </c>
       <c r="AZ250" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="BB250" s="1">
         <v>12</v>
@@ -51139,10 +51107,10 @@
         <v>111</v>
       </c>
       <c r="BH250" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="BI250" s="1" t="s">
         <v>2285</v>
-      </c>
-      <c r="BI250" s="1" t="s">
-        <v>2286</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>114</v>
@@ -51151,7 +51119,7 @@
         <v>102</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>118</v>
@@ -51169,13 +51137,13 @@
         <v>98</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="CD250" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="CE250" s="1" t="s">
         <v>2288</v>
-      </c>
-      <c r="CD250" s="1" t="s">
-        <v>2288</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>2289</v>
       </c>
     </row>
     <row r="251" spans="1:83" x14ac:dyDescent="0.25">
@@ -51210,13 +51178,13 @@
         <v>93</v>
       </c>
       <c r="K251" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="L251" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="L251" s="1" t="s">
+      <c r="N251" s="1" t="s">
         <v>2291</v>
-      </c>
-      <c r="N251" s="1" t="s">
-        <v>2292</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>97</v>
@@ -51251,12 +51219,7 @@
       <c r="AA251" s="1">
         <v>0</v>
       </c>
-      <c r="AC251" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD251" s="1" t="s">
-        <v>2237</v>
-      </c>
+      <c r="AC251" s="3"/>
       <c r="AF251" s="1" t="s">
         <v>103</v>
       </c>
@@ -51303,7 +51266,7 @@
         <v>98</v>
       </c>
       <c r="AZ251" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BB251" s="1">
         <v>12</v>
@@ -51324,10 +51287,10 @@
         <v>111</v>
       </c>
       <c r="BH251" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="BI251" s="1" t="s">
         <v>2294</v>
-      </c>
-      <c r="BI251" s="1" t="s">
-        <v>2295</v>
       </c>
       <c r="BJ251" s="1" t="s">
         <v>2173</v>
@@ -51342,13 +51305,13 @@
         <v>115</v>
       </c>
       <c r="BR251" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BS251" s="3">
         <v>35243</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>118</v>
@@ -51366,13 +51329,13 @@
         <v>98</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="CD251" s="1" t="s">
         <v>2298</v>
       </c>
-      <c r="CD251" s="1" t="s">
+      <c r="CE251" s="1" t="s">
         <v>2299</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>2300</v>
       </c>
     </row>
     <row r="252" spans="1:83" x14ac:dyDescent="0.25">
@@ -51407,13 +51370,13 @@
         <v>93</v>
       </c>
       <c r="K252" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="L252" s="1" t="s">
         <v>2301</v>
       </c>
-      <c r="L252" s="1" t="s">
+      <c r="N252" s="1" t="s">
         <v>2302</v>
-      </c>
-      <c r="N252" s="1" t="s">
-        <v>2303</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>97</v>
@@ -51442,12 +51405,7 @@
       <c r="AA252" s="1">
         <v>0</v>
       </c>
-      <c r="AC252" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD252" s="1" t="s">
-        <v>2237</v>
-      </c>
+      <c r="AC252" s="3"/>
       <c r="AF252" s="1" t="s">
         <v>103</v>
       </c>
@@ -51497,7 +51455,7 @@
         <v>98</v>
       </c>
       <c r="AZ252" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="BB252" s="1">
         <v>12</v>
@@ -51515,7 +51473,7 @@
         <v>111</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BI252" s="1" t="s">
         <v>658</v>
@@ -51527,7 +51485,7 @@
         <v>102</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>118</v>
@@ -51545,13 +51503,13 @@
         <v>98</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="CD252" s="1" t="s">
         <v>2307</v>
       </c>
-      <c r="CD252" s="1" t="s">
+      <c r="CE252" s="1" t="s">
         <v>2308</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>2309</v>
       </c>
     </row>
     <row r="253" spans="1:83" x14ac:dyDescent="0.25">
@@ -51586,13 +51544,13 @@
         <v>93</v>
       </c>
       <c r="K253" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="L253" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="L253" s="1" t="s">
+      <c r="N253" s="1" t="s">
         <v>2311</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>2312</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>97</v>
@@ -51621,12 +51579,7 @@
       <c r="AA253" s="1">
         <v>0</v>
       </c>
-      <c r="AC253" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD253" s="1" t="s">
-        <v>2237</v>
-      </c>
+      <c r="AC253" s="3"/>
       <c r="AF253" s="1" t="s">
         <v>103</v>
       </c>
@@ -51676,7 +51629,7 @@
         <v>98</v>
       </c>
       <c r="AZ253" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BB253" s="1">
         <v>12</v>
@@ -51694,10 +51647,10 @@
         <v>111</v>
       </c>
       <c r="BH253" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="BI253" s="1" t="s">
         <v>2314</v>
-      </c>
-      <c r="BI253" s="1" t="s">
-        <v>2315</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>114</v>
@@ -51706,7 +51659,7 @@
         <v>102</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>118</v>
@@ -51724,13 +51677,13 @@
         <v>98</v>
       </c>
       <c r="CC253" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="CD253" s="1" t="s">
         <v>2317</v>
       </c>
-      <c r="CD253" s="1" t="s">
+      <c r="CE253" s="1" t="s">
         <v>2318</v>
-      </c>
-      <c r="CE253" s="1" t="s">
-        <v>2319</v>
       </c>
     </row>
     <row r="254" spans="1:83" x14ac:dyDescent="0.25">
@@ -51765,13 +51718,13 @@
         <v>93</v>
       </c>
       <c r="K254" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="L254" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="L254" s="1" t="s">
+      <c r="N254" s="1" t="s">
         <v>2321</v>
-      </c>
-      <c r="N254" s="1" t="s">
-        <v>2322</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>97</v>
@@ -51800,12 +51753,7 @@
       <c r="AA254" s="1">
         <v>0</v>
       </c>
-      <c r="AC254" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD254" s="1" t="s">
-        <v>2237</v>
-      </c>
+      <c r="AC254" s="3"/>
       <c r="AF254" s="1" t="s">
         <v>103</v>
       </c>
@@ -51852,7 +51800,7 @@
         <v>98</v>
       </c>
       <c r="AZ254" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BB254" s="1">
         <v>12</v>
@@ -51873,10 +51821,10 @@
         <v>111</v>
       </c>
       <c r="BH254" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="BI254" s="1" t="s">
         <v>2324</v>
-      </c>
-      <c r="BI254" s="1" t="s">
-        <v>2325</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>114</v>
@@ -51888,13 +51836,13 @@
         <v>203</v>
       </c>
       <c r="BR254" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="BS254" s="3">
         <v>34307</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>118</v>
@@ -51912,13 +51860,13 @@
         <v>98</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="CD254" s="1" t="s">
         <v>436</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="255" spans="1:83" x14ac:dyDescent="0.25">
@@ -51953,13 +51901,13 @@
         <v>93</v>
       </c>
       <c r="K255" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="L255" s="1" t="s">
         <v>2330</v>
       </c>
-      <c r="L255" s="1" t="s">
+      <c r="N255" s="1" t="s">
         <v>2331</v>
-      </c>
-      <c r="N255" s="1" t="s">
-        <v>2332</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>97</v>
@@ -51991,12 +51939,7 @@
       <c r="AA255" s="1">
         <v>0</v>
       </c>
-      <c r="AC255" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD255" s="1" t="s">
-        <v>2237</v>
-      </c>
+      <c r="AC255" s="3"/>
       <c r="AF255" s="1" t="s">
         <v>103</v>
       </c>
@@ -52046,7 +51989,7 @@
         <v>98</v>
       </c>
       <c r="AZ255" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BB255" s="1">
         <v>12</v>
@@ -52067,10 +52010,10 @@
         <v>111</v>
       </c>
       <c r="BH255" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="BI255" s="1" t="s">
         <v>2334</v>
-      </c>
-      <c r="BI255" s="1" t="s">
-        <v>2335</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>114</v>
@@ -52079,7 +52022,7 @@
         <v>102</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>118</v>
@@ -52100,13 +52043,13 @@
         <v>98</v>
       </c>
       <c r="CC255" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="CD255" s="1" t="s">
         <v>2337</v>
       </c>
-      <c r="CD255" s="1" t="s">
+      <c r="CE255" s="1" t="s">
         <v>2338</v>
-      </c>
-      <c r="CE255" s="1" t="s">
-        <v>2339</v>
       </c>
     </row>
     <row r="256" spans="1:83" x14ac:dyDescent="0.25">
@@ -52141,13 +52084,13 @@
         <v>93</v>
       </c>
       <c r="K256" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="L256" s="1" t="s">
         <v>2340</v>
       </c>
-      <c r="L256" s="1" t="s">
+      <c r="N256" s="1" t="s">
         <v>2341</v>
-      </c>
-      <c r="N256" s="1" t="s">
-        <v>2342</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>97</v>
@@ -52176,12 +52119,7 @@
       <c r="AA256" s="1">
         <v>0</v>
       </c>
-      <c r="AC256" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD256" s="1" t="s">
-        <v>2237</v>
-      </c>
+      <c r="AC256" s="3"/>
       <c r="AF256" s="1" t="s">
         <v>103</v>
       </c>
@@ -52228,7 +52166,7 @@
         <v>98</v>
       </c>
       <c r="AZ256" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="BB256" s="1">
         <v>12</v>
@@ -52249,10 +52187,10 @@
         <v>111</v>
       </c>
       <c r="BH256" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="BI256" s="1" t="s">
         <v>2344</v>
-      </c>
-      <c r="BI256" s="1" t="s">
-        <v>2345</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>114</v>
@@ -52264,13 +52202,13 @@
         <v>115</v>
       </c>
       <c r="BR256" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BS256" s="3">
         <v>35950</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>118</v>
@@ -52288,13 +52226,13 @@
         <v>98</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="CD256" s="1" t="s">
         <v>1660</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="257" spans="1:84" x14ac:dyDescent="0.25">
@@ -52329,16 +52267,16 @@
         <v>88</v>
       </c>
       <c r="K257" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="L257" s="1" t="s">
         <v>2350</v>
-      </c>
-      <c r="L257" s="1" t="s">
-        <v>2351</v>
       </c>
       <c r="M257" s="1" t="s">
         <v>107</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>97</v>
@@ -52389,7 +52327,7 @@
         <v>0</v>
       </c>
       <c r="AN257" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="AO257" s="1">
         <v>0</v>
@@ -52434,13 +52372,13 @@
         <v>111</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>118</v>
@@ -52464,10 +52402,10 @@
         <v>2109</v>
       </c>
       <c r="CD257" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="CE257" s="1" t="s">
         <v>2356</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>2357</v>
       </c>
     </row>
     <row r="258" spans="1:84" x14ac:dyDescent="0.25">
@@ -52502,16 +52440,16 @@
         <v>88</v>
       </c>
       <c r="K258" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="L258" s="1" t="s">
         <v>2358</v>
-      </c>
-      <c r="L258" s="1" t="s">
-        <v>2359</v>
       </c>
       <c r="M258" s="1" t="s">
         <v>107</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>97</v>
@@ -52565,7 +52503,7 @@
         <v>0</v>
       </c>
       <c r="AN258" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="AO258" s="1">
         <v>0</v>
@@ -52610,13 +52548,13 @@
         <v>111</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>118</v>
@@ -52637,13 +52575,13 @@
         <v>98</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="CD258" s="1" t="s">
         <v>2363</v>
       </c>
-      <c r="CD258" s="1" t="s">
+      <c r="CE258" s="1" t="s">
         <v>2364</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>2365</v>
       </c>
     </row>
     <row r="259" spans="1:84" x14ac:dyDescent="0.25">
@@ -52678,16 +52616,16 @@
         <v>88</v>
       </c>
       <c r="K259" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="L259" s="1" t="s">
         <v>2366</v>
-      </c>
-      <c r="L259" s="1" t="s">
-        <v>2367</v>
       </c>
       <c r="M259" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>97</v>
@@ -52741,7 +52679,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="AO259" s="1">
         <v>0</v>
@@ -52786,13 +52724,13 @@
         <v>111</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>118</v>
@@ -52813,13 +52751,13 @@
         <v>98</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="CD259" s="1" t="s">
         <v>2371</v>
       </c>
-      <c r="CD259" s="1" t="s">
+      <c r="CE259" s="1" t="s">
         <v>2372</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>2373</v>
       </c>
     </row>
     <row r="260" spans="1:84" x14ac:dyDescent="0.25">
@@ -52854,16 +52792,16 @@
         <v>88</v>
       </c>
       <c r="K260" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="L260" s="1" t="s">
         <v>2374</v>
-      </c>
-      <c r="L260" s="1" t="s">
-        <v>2375</v>
       </c>
       <c r="M260" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>97</v>
@@ -52959,13 +52897,13 @@
         <v>111</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>118</v>
@@ -52986,10 +52924,10 @@
         <v>98</v>
       </c>
       <c r="CC260" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="CE260" s="1" t="s">
         <v>195</v>
@@ -53027,16 +52965,16 @@
         <v>88</v>
       </c>
       <c r="K261" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="L261" s="1" t="s">
         <v>2380</v>
-      </c>
-      <c r="L261" s="1" t="s">
-        <v>2381</v>
       </c>
       <c r="M261" s="1" t="s">
         <v>107</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>97</v>
@@ -53090,7 +53028,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="AO261" s="1">
         <v>0</v>
@@ -53135,13 +53073,13 @@
         <v>111</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>118</v>
@@ -53165,13 +53103,13 @@
         <v>98</v>
       </c>
       <c r="CC261" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="CD261" s="1" t="s">
         <v>1170</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="262" spans="1:84" x14ac:dyDescent="0.25">
@@ -53206,16 +53144,16 @@
         <v>88</v>
       </c>
       <c r="K262" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="L262" s="1" t="s">
         <v>2387</v>
-      </c>
-      <c r="L262" s="1" t="s">
-        <v>2388</v>
       </c>
       <c r="M262" s="1" t="s">
         <v>107</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>97</v>
@@ -53266,7 +53204,7 @@
         <v>0</v>
       </c>
       <c r="AN262" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="AO262" s="1">
         <v>0</v>
@@ -53311,13 +53249,13 @@
         <v>111</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>118</v>
@@ -53338,18 +53276,18 @@
         <v>98</v>
       </c>
       <c r="CC262" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="CD262" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="CE262" s="1" t="s">
         <v>2393</v>
-      </c>
-      <c r="CD262" s="1" t="s">
-        <v>2308</v>
-      </c>
-      <c r="CE262" s="1" t="s">
-        <v>2394</v>
       </c>
     </row>
     <row r="263" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>85</v>
@@ -53361,7 +53299,7 @@
         <v>166</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>98</v>
@@ -53373,22 +53311,22 @@
         <v>91</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K263" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="L263" s="1" t="s">
         <v>2398</v>
       </c>
-      <c r="L263" s="1" t="s">
+      <c r="M263" s="1" t="s">
         <v>2399</v>
       </c>
-      <c r="M263" s="1" t="s">
+      <c r="N263" s="1" t="s">
         <v>2400</v>
-      </c>
-      <c r="N263" s="1" t="s">
-        <v>2401</v>
       </c>
       <c r="Q263" s="3">
         <v>21430</v>
@@ -53421,7 +53359,7 @@
         <v>41330</v>
       </c>
       <c r="AD263" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="AF263" s="1" t="s">
         <v>103</v>
@@ -53472,10 +53410,10 @@
         <v>98</v>
       </c>
       <c r="BH263" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="BI263" s="1" t="s">
         <v>2403</v>
-      </c>
-      <c r="BI263" s="1" t="s">
-        <v>2404</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>114</v>
@@ -53484,7 +53422,7 @@
         <v>102</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>118</v>
@@ -53508,13 +53446,13 @@
         <v>98</v>
       </c>
       <c r="CC263" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="CD263" s="1" t="s">
         <v>2406</v>
       </c>
-      <c r="CD263" s="1" t="s">
+      <c r="CE263" s="1" t="s">
         <v>2407</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>2408</v>
       </c>
     </row>
     <row r="264" spans="1:84" x14ac:dyDescent="0.25">
@@ -53549,16 +53487,16 @@
         <v>93</v>
       </c>
       <c r="K264" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="L264" s="1" t="s">
         <v>2409</v>
       </c>
-      <c r="L264" s="1" t="s">
+      <c r="M264" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="N264" s="1" t="s">
         <v>2410</v>
-      </c>
-      <c r="M264" s="1" t="s">
-        <v>2400</v>
-      </c>
-      <c r="N264" s="1" t="s">
-        <v>2411</v>
       </c>
       <c r="Q264" s="3">
         <v>21965</v>
@@ -53588,13 +53526,13 @@
         <v>0</v>
       </c>
       <c r="AB264" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="AC264" s="3">
         <v>41579</v>
       </c>
       <c r="AD264" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="AF264" s="1" t="s">
         <v>103</v>
@@ -53642,13 +53580,13 @@
         <v>98</v>
       </c>
       <c r="AZ264" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BD264" s="1" t="s">
         <v>99</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>114</v>
@@ -53660,13 +53598,13 @@
         <v>203</v>
       </c>
       <c r="BR264" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="BS264" s="3">
         <v>35087</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>118</v>
@@ -53687,13 +53625,13 @@
         <v>98</v>
       </c>
       <c r="CC264" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="CD264" s="1" t="s">
         <v>1516</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="265" spans="1:84" x14ac:dyDescent="0.25">
@@ -53728,16 +53666,16 @@
         <v>93</v>
       </c>
       <c r="K265" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="L265" s="1" t="s">
         <v>2420</v>
       </c>
-      <c r="L265" s="1" t="s">
+      <c r="M265" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="N265" s="1" t="s">
         <v>2421</v>
-      </c>
-      <c r="M265" s="1" t="s">
-        <v>2400</v>
-      </c>
-      <c r="N265" s="1" t="s">
-        <v>2422</v>
       </c>
       <c r="Q265" s="3">
         <v>18241</v>
@@ -53764,7 +53702,7 @@
         <v>41759</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>103</v>
@@ -53794,28 +53732,28 @@
         <v>107</v>
       </c>
       <c r="AQ265" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="AR265" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS265" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT265" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU265" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV265" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY265" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH265" s="1" t="s">
         <v>2424</v>
-      </c>
-      <c r="AR265" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS265" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT265" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU265" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV265" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY265" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH265" s="1" t="s">
-        <v>2425</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>114</v>
@@ -53824,13 +53762,13 @@
         <v>115</v>
       </c>
       <c r="BR265" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="BS265" s="3">
         <v>34292</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>118</v>
@@ -53851,7 +53789,7 @@
         <v>98</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="CD265" s="1" t="s">
         <v>1709</v>
@@ -53892,16 +53830,16 @@
         <v>93</v>
       </c>
       <c r="K266" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="L266" s="1" t="s">
         <v>2429</v>
       </c>
-      <c r="L266" s="1" t="s">
+      <c r="M266" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="N266" s="1" t="s">
         <v>2430</v>
-      </c>
-      <c r="M266" s="1" t="s">
-        <v>2400</v>
-      </c>
-      <c r="N266" s="1" t="s">
-        <v>2431</v>
       </c>
       <c r="Q266" s="3">
         <v>23125</v>
@@ -53934,7 +53872,7 @@
         <v>42247</v>
       </c>
       <c r="AD266" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="AF266" s="1" t="s">
         <v>103</v>
@@ -53985,7 +53923,7 @@
         <v>1444</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>114</v>
@@ -53997,13 +53935,13 @@
         <v>203</v>
       </c>
       <c r="BR266" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BS266" s="3">
         <v>36580</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>118</v>
@@ -54024,7 +53962,7 @@
         <v>98</v>
       </c>
       <c r="CC266" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="CD266" s="1" t="s">
         <v>298</v>
@@ -54065,16 +54003,16 @@
         <v>93</v>
       </c>
       <c r="K267" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="L267" s="1" t="s">
         <v>2437</v>
       </c>
-      <c r="L267" s="1" t="s">
+      <c r="M267" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="N267" s="1" t="s">
         <v>2438</v>
-      </c>
-      <c r="M267" s="1" t="s">
-        <v>2400</v>
-      </c>
-      <c r="N267" s="1" t="s">
-        <v>2439</v>
       </c>
       <c r="Q267" s="3">
         <v>23356</v>
@@ -54097,12 +54035,7 @@
       <c r="AA267" s="1">
         <v>0</v>
       </c>
-      <c r="AC267" s="3">
-        <v>42308</v>
-      </c>
-      <c r="AD267" s="1" t="s">
-        <v>2237</v>
-      </c>
+      <c r="AC267" s="3"/>
       <c r="AF267" s="1" t="s">
         <v>103</v>
       </c>
@@ -54149,7 +54082,7 @@
         <v>98</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>114</v>
@@ -54161,13 +54094,13 @@
         <v>99</v>
       </c>
       <c r="BR267" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BS267" s="3">
         <v>34412</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>118</v>
@@ -54188,13 +54121,13 @@
         <v>98</v>
       </c>
       <c r="CC267" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="CD267" s="1" t="s">
         <v>2443</v>
       </c>
-      <c r="CD267" s="1" t="s">
+      <c r="CE267" s="1" t="s">
         <v>2444</v>
-      </c>
-      <c r="CE267" s="1" t="s">
-        <v>2445</v>
       </c>
     </row>
     <row r="268" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -54347,7 +54280,7 @@
         <v>111</v>
       </c>
       <c r="BH268" s="4" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BI268" s="4"/>
       <c r="BJ268" s="4"/>
@@ -54544,7 +54477,7 @@
         <v>111</v>
       </c>
       <c r="BH269" s="4" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="BI269" s="4"/>
       <c r="BJ269" s="4"/>
@@ -54739,7 +54672,7 @@
         <v>111</v>
       </c>
       <c r="BH270" s="4" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BI270" s="4"/>
       <c r="BJ270" s="4"/>
@@ -54936,7 +54869,7 @@
         <v>111</v>
       </c>
       <c r="BH271" s="4" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BI271" s="4"/>
       <c r="BJ271" s="4"/>
@@ -55128,7 +55061,7 @@
         <v>111</v>
       </c>
       <c r="BH272" s="4" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BI272" s="4"/>
       <c r="BJ272" s="4"/>
@@ -55190,7 +55123,7 @@
         <v>166</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="F273" s="4" t="s">
         <v>89</v>
@@ -55202,7 +55135,7 @@
         <v>91</v>
       </c>
       <c r="I273" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="J273" s="4" t="s">
         <v>93</v>
@@ -55320,7 +55253,7 @@
         <v>111</v>
       </c>
       <c r="BH273" s="4" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BI273" s="4"/>
       <c r="BJ273" s="4"/>
@@ -55347,7 +55280,7 @@
       </c>
       <c r="BY273" s="4"/>
       <c r="BZ273" s="4" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="CA273" s="4" t="s">
         <v>120</v>
@@ -55508,7 +55441,7 @@
         <v>111</v>
       </c>
       <c r="BH274" s="4" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="BI274" s="4"/>
       <c r="BJ274" s="4"/>
@@ -55564,6 +55497,7 @@
       <c r="CF274" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF274" xr:uid="{7475B5E5-8C10-44FC-A0EE-F6CCFD278536}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>